--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3992306.229640666</v>
+        <v>3994066.75994345</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>232.2791855053261</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>19.23105653261534</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>16.92985768039624</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>96.02211594106024</v>
       </c>
       <c r="T4" t="n">
-        <v>135.6281677115798</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015058</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>263.7138800015061</v>
+        <v>225.1346772411287</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>166.4556462638498</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>107.2977824924678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>162.7079352124034</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.7079352124032</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>225.2047872283833</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465031</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>115.4465551725253</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592449</v>
       </c>
       <c r="H9" t="n">
-        <v>91.0626477516203</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.2497997611523</v>
+        <v>20.24979976115236</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>177.1619840874533</v>
       </c>
       <c r="U10" t="n">
-        <v>141.0507261833251</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>80.33989744909003</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>229.2938944146491</v>
+        <v>172.3645574474261</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444129</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695537</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576162</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695537</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444153</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>43.55707494718542</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8253826161913524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>20.13408744447759</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560546</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.75770077867834</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>24.8326660635311</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3508,19 +3508,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>71.79687029691078</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.4778634388456</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="C2" t="n">
-        <v>788.4778634388456</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="D2" t="n">
-        <v>788.4778634388456</v>
+        <v>820.2300801016544</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8524235344757</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672981</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.2826908791755</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052536</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.51749475159</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030597</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991306</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358402</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601761</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388456</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.4778634388456</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5440004277914</v>
+        <v>466.66566151776</v>
       </c>
       <c r="C3" t="n">
-        <v>486.0909711466644</v>
+        <v>466.66566151776</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854131</v>
+        <v>317.7312518565088</v>
       </c>
       <c r="E3" t="n">
-        <v>177.9191064799576</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510532</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004794</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699335</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.87400723023</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267537</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293586</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560883</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789492</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212813</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212813</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212813</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212813</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212813</v>
+        <v>906.2192216098642</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212813</v>
+        <v>651.9818648816627</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212813</v>
+        <v>634.8809985378281</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478595</v>
+        <v>634.8809985378281</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>315.9001514804239</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="C4" t="n">
-        <v>315.9001514804239</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D4" t="n">
-        <v>315.9001514804239</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E4" t="n">
-        <v>167.9870578980308</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012046</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287946</v>
@@ -4497,43 +4497,43 @@
         <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075528</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816801</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006023</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407061</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512175</v>
+        <v>957.8634837019233</v>
       </c>
       <c r="T4" t="n">
-        <v>582.2778080476015</v>
+        <v>732.3944474599376</v>
       </c>
       <c r="U4" t="n">
-        <v>582.2778080476015</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="V4" t="n">
-        <v>582.2778080476015</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="W4" t="n">
-        <v>315.9001514804239</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="X4" t="n">
-        <v>315.9001514804239</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="Y4" t="n">
-        <v>315.9001514804239</v>
+        <v>466.0167908927597</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571243</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899463</v>
+        <v>534.7928453799753</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899463</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="E5" t="n">
-        <v>307.3840804899463</v>
+        <v>268.4151888127974</v>
       </c>
       <c r="F5" t="n">
-        <v>300.4385797407429</v>
+        <v>261.4696880635939</v>
       </c>
       <c r="G5" t="n">
-        <v>287.4747669672984</v>
+        <v>248.5058752901495</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4567,19 +4567,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4588,31 +4588,31 @@
         <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243021</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="W5" t="n">
-        <v>573.7617370571243</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="X5" t="n">
-        <v>573.7617370571243</v>
+        <v>801.1705019471533</v>
       </c>
       <c r="Y5" t="n">
-        <v>573.7617370571243</v>
+        <v>801.1705019471533</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.09711040012049</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="C6" t="n">
-        <v>21.09711040012049</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="D6" t="n">
-        <v>21.09711040012049</v>
+        <v>464.2658098296238</v>
       </c>
       <c r="E6" t="n">
-        <v>21.09711040012049</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
         <v>21.09711040012049</v>
@@ -4649,49 +4649,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267548</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
         <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560895</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>826.7196740428378</v>
+        <v>886.7185035778934</v>
       </c>
       <c r="V6" t="n">
-        <v>591.5675658110952</v>
+        <v>886.7185035778934</v>
       </c>
       <c r="W6" t="n">
-        <v>337.3302090828935</v>
+        <v>632.4811468496919</v>
       </c>
       <c r="X6" t="n">
-        <v>129.4787088773607</v>
+        <v>632.4811468496919</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.09711040012049</v>
+        <v>632.4811468496919</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>488.0630263227563</v>
+        <v>652.4144760322547</v>
       </c>
       <c r="C7" t="n">
-        <v>319.1268433948493</v>
+        <v>483.4782931043478</v>
       </c>
       <c r="D7" t="n">
-        <v>169.0102039825136</v>
+        <v>333.3616536920121</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>185.4485601096189</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>185.4485601096189</v>
       </c>
       <c r="G7" t="n">
         <v>21.09711040012049</v>
@@ -4728,49 +4728,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551007</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227043</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>890.5040702965262</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y7" t="n">
-        <v>669.711491152996</v>
+        <v>834.0629408624944</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1079.294942698205</v>
+        <v>2057.350238286213</v>
       </c>
       <c r="C8" t="n">
-        <v>710.3324257577931</v>
+        <v>1688.387721345801</v>
       </c>
       <c r="D8" t="n">
-        <v>352.0667271510426</v>
+        <v>1330.122022739051</v>
       </c>
       <c r="E8" t="n">
-        <v>352.0667271510426</v>
+        <v>944.3337701408066</v>
       </c>
       <c r="F8" t="n">
-        <v>345.1212264018391</v>
+        <v>533.3478653511989</v>
       </c>
       <c r="G8" t="n">
         <v>117.6416433428661</v>
@@ -4801,55 +4801,55 @@
         <v>117.6416433428661</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J8" t="n">
         <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607423</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045945</v>
+        <v>795.1862829045931</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995227</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209585</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940597</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550199</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661169</v>
+        <v>2540.564622661165</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999218</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999218</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="X8" t="n">
-        <v>1856.034114738138</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.894782762326</v>
+        <v>2443.950078350335</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010836</v>
+        <v>929.5097208010795</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199566</v>
+        <v>755.0566915199526</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818587054</v>
+        <v>606.1222818587013</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532499</v>
+        <v>446.8848268532458</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801349</v>
+        <v>300.3502688801308</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763231</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993892</v>
+        <v>71.66559839993889</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637191</v>
+        <v>113.4887579637189</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148186</v>
+        <v>506.4581980381357</v>
       </c>
       <c r="L9" t="n">
-        <v>814.4198492277071</v>
+        <v>800.9941814716171</v>
       </c>
       <c r="M9" t="n">
-        <v>1177.486317702009</v>
+        <v>1164.060649945919</v>
       </c>
       <c r="N9" t="n">
-        <v>1564.570720174579</v>
+        <v>1551.145052418488</v>
       </c>
       <c r="O9" t="n">
-        <v>2198.310003359419</v>
+        <v>1883.031862405877</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789044</v>
+        <v>2445.34536178904</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342789</v>
+        <v>2560.562760342785</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251704</v>
+        <v>2424.8262802517</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685353</v>
+        <v>2230.816477685349</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751583</v>
+        <v>2002.726321751579</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351984</v>
+        <v>1767.574213519836</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791638</v>
+        <v>1513.336856791634</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586106</v>
+        <v>1305.485356586101</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821152</v>
+        <v>1097.725057821148</v>
       </c>
     </row>
     <row r="10">
@@ -4938,61 +4938,61 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="C10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="D10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="E10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685577</v>
+        <v>51.2112552068557</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380172</v>
+        <v>76.63468308380155</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676572</v>
+        <v>248.2500215676569</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368926</v>
+        <v>523.3850043368922</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904044</v>
+        <v>823.8653899904037</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101614</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.4903876165</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477365</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412622</v>
+        <v>1635.769145477363</v>
       </c>
       <c r="S10" t="n">
-        <v>1336.515802634456</v>
+        <v>1439.128892699197</v>
       </c>
       <c r="T10" t="n">
-        <v>1113.534501108861</v>
+        <v>1260.177393620962</v>
       </c>
       <c r="U10" t="n">
         <v>971.0590201156035</v>
@@ -5001,13 +5001,13 @@
         <v>971.0590201156035</v>
       </c>
       <c r="W10" t="n">
-        <v>681.641850078643</v>
+        <v>681.6418500786428</v>
       </c>
       <c r="X10" t="n">
-        <v>453.6522991806256</v>
+        <v>453.6522991806255</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.8597200370955</v>
+        <v>232.8597200370954</v>
       </c>
     </row>
     <row r="11">
@@ -5026,25 +5026,25 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5053,13 +5053,13 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,19 +5068,19 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>802.9288273958739</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>633.992644467967</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>483.8760050556313</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>483.8760050556313</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>483.8760050556313</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>316.6799057705112</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9680746127093</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.359422267661</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.369871369644</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.5772922261136</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,25 +5266,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111725</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075818</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5360,19 +5360,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5606,10 +5606,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459586</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180517</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817746</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761984</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362678</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5843,10 +5843,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,28 +6001,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168628</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
         <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,55 +6360,55 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474266</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
@@ -6426,10 +6426,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6554,10 +6554,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373306</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
         <v>2516.421633107662</v>
@@ -6597,55 +6597,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311994</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032925</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
         <v>2264.108249235165</v>
@@ -6663,10 +6663,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1024.063349920563</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>855.1271669926557</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.711814750802</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,31 +6949,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852889</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>580.8993044876693</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E37" t="n">
         <v>407.9027098310023</v>
@@ -7086,40 +7086,40 @@
         <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7137,10 +7137,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,37 +7186,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7405,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7438,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,46 +7636,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
         <v>243.4633055756266</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961068995</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446524</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658814</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127275</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8534,10 +8534,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>210.477215882139</v>
       </c>
       <c r="L9" t="n">
-        <v>224.0384964438452</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>304.9014880782328</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348496</v>
+        <v>20.98618304348506</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9259388694754875</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22910392194186</v>
+        <v>114.1584408891649</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>32.79125956324884</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194174</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4813855737348</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>73.85777223953401</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>123.7828069546813</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>145.6085800303775</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615119.0532077017</v>
+        <v>615119.0532077018</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615119.0532077018</v>
+        <v>615119.0532077017</v>
       </c>
     </row>
     <row r="8">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
         <v>807146.5996900059</v>
@@ -26334,28 +26334,28 @@
         <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900063</v>
-      </c>
       <c r="N2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.599690006</v>
       </c>
       <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900059</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911926</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580805</v>
+        <v>390680.0076580794</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606923</v>
+        <v>507909.2320606931</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.614506921984932e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911395</v>
+        <v>68999.15441911394</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.855620978121273e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101802</v>
+        <v>95270.23779101773</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954687</v>
+        <v>132717.9756954691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>250332.6659748622</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.652755502</v>
+        <v>139261.6527555023</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678116</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678111</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678114</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678112</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426617</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567908</v>
+        <v>92902.867575679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-172426.6799060379</v>
+        <v>-172426.6799060381</v>
       </c>
       <c r="C6" t="n">
         <v>507661.3006851551</v>
       </c>
       <c r="D6" t="n">
-        <v>198197.2418750218</v>
+        <v>198197.2418750224</v>
       </c>
       <c r="E6" t="n">
-        <v>187210.3702642684</v>
+        <v>187523.0115931889</v>
       </c>
       <c r="F6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538818</v>
       </c>
       <c r="G6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538824</v>
       </c>
       <c r="H6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="I6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538818</v>
       </c>
       <c r="J6" t="n">
-        <v>626120.4479058471</v>
+        <v>626433.0892347686</v>
       </c>
       <c r="K6" t="n">
-        <v>695119.602324961</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="L6" t="n">
-        <v>599849.3645339429</v>
+        <v>600162.0058628643</v>
       </c>
       <c r="M6" t="n">
-        <v>562401.6266294923</v>
+        <v>562714.2679584132</v>
       </c>
       <c r="N6" t="n">
-        <v>695119.6023249612</v>
+        <v>695432.2436538821</v>
       </c>
       <c r="O6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538822</v>
       </c>
       <c r="P6" t="n">
-        <v>695119.6023249608</v>
+        <v>695432.2436538818</v>
       </c>
     </row>
   </sheetData>
@@ -26703,10 +26703,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627838</v>
+        <v>933.7024595627831</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856972</v>
+        <v>640.1406900856962</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,34 +26804,34 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.319526222651591e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.055013769478</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933058</v>
+        <v>319.6474457933049</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788902</v>
+        <v>434.2730407788908</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.42681008419</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015059</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.319526222651591e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015058</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841911</v>
+        <v>376.42681008419</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139514</v>
+        <v>532.5675980139524</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>150.4546561581541</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>149.6511845669357</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402056</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442042</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27432,7 +27432,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769632</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>125.8381558607685</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>194.8409875848768</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>188.8431275230813</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>108.6970483025335</v>
       </c>
       <c r="T4" t="n">
-        <v>87.58617816798605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.8091183350852</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695015</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>50.47975262776191</v>
+        <v>89.05895538813931</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27669,16 +27669,16 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>115.1832933522299</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,19 +27703,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27751,19 +27751,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>59.39884123970484</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>98.38491328483656</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>4.175731826143135</v>
       </c>
       <c r="H7" t="n">
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>42.01122903119057</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
@@ -27861,13 +27861,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>186.3443725598662</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>301.0334742203004</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348405</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896856</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>270.7913834835283</v>
       </c>
     </row>
     <row r="9">
@@ -27946,10 +27946,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164528771</v>
       </c>
       <c r="H9" t="n">
-        <v>1.776449164524749</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>43.58950442288545</v>
       </c>
       <c r="U10" t="n">
-        <v>145.1764635869793</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>8.268133652481165e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,13 +29088,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-8.268133652481166e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29283,16 +29283,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-2.646774763990702e-15</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-7.319526222651591e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-7.319526222651591e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-7.319526222651591e-14</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-4.816119231638003e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>-9.641133868265976e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29997,13 +29997,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.166808073631175e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30711,7 +30711,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-7.319526222651591e-14</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30747,7 +30747,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-7.319526222651591e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
         <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
         <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
         <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
         <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885557</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546676</v>
+        <v>38.44132789546673</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157556</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972534</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763195</v>
+        <v>477.4691627763191</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354936</v>
+        <v>592.3427171354931</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359946</v>
+        <v>659.0954050359941</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525078</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307899</v>
+        <v>632.4356192307895</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.7691690983022</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.344166754213</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864753</v>
+        <v>235.7856768864751</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514048</v>
+        <v>85.53465245140472</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508448</v>
+        <v>0.3002862181508446</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.00834113943693</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026277</v>
+        <v>69.14683309026272</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079426</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502169</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571282</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617171</v>
+        <v>508.8678404617168</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152215</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519085</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947593</v>
+        <v>383.505072494759</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463702</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204789</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366403</v>
+        <v>37.304055813664</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133938</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840004</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415881</v>
       </c>
       <c r="J10" t="n">
         <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772519</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490124</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023128</v>
+        <v>263.9316641023125</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462351</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046257</v>
+        <v>237.9869810046255</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.6389757708731</v>
       </c>
       <c r="Q10" t="n">
         <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307417</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658778</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942758</v>
+        <v>7.194100917942753</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650342</v>
+        <v>0.09183958618650336</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496632</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32080,10 +32080,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>604.2458225991924</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>400.5469039565762</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>400.5469039565762</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>400.5469039565762</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127164</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763038</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659561</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958066</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572289</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460656</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
         <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705674</v>
+        <v>137.5343130705671</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313386</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655063</v>
+        <v>356.5763021655059</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087219</v>
+        <v>428.7491718087214</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559168</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091032</v>
+        <v>402.3374078091027</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430327</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797639</v>
+        <v>183.0384768797635</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234315</v>
+        <v>20.20013907234298</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127605</v>
+        <v>62.90656844127591</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758581</v>
+        <v>396.9388283579968</v>
       </c>
       <c r="L9" t="n">
-        <v>521.5495908210995</v>
+        <v>297.511094377254</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396988</v>
+        <v>366.7338065396984</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>390.9943459318882</v>
       </c>
       <c r="O9" t="n">
-        <v>640.1406900856972</v>
+        <v>335.239202007464</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804291</v>
+        <v>567.9934337203659</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>116.3812106603487</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873327</v>
+        <v>25.68023017873318</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513692</v>
+        <v>173.348826751369</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093285</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641534</v>
+        <v>303.5155410641531</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254637</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186652</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357666</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228587</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663299</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,7 +35743,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>472.904110515859</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>257.9506595121318</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>257.9506595121318</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>257.9506595121318</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
